--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/34_Giresun_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/34_Giresun_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3484E4E0-5494-4A28-BCE7-8F2B1C8851F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5245C936-B4DD-47DD-80F8-25DBAFA2811B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FABEC843-65DF-4C72-A6FE-2A1141B750FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51CDD0E1-C30A-4964-8C3B-21A84CDEBCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{6280A8E9-1380-4B2F-BB67-1A94F7A7C309}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E1243182-E238-487C-9A8C-CF3F981C88B5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7E3F3A54-C0AD-4F69-8F4E-FD4AE1A5EF49}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A4846C4E-FC4F-4E70-9D1B-DC65777F455D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{5ACA6C47-D271-4BF8-BA57-34794E8A283C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{44143ED5-56E1-4145-BEFC-44AAC05BF2DD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7F12FCE0-FB2A-4EF2-9EB8-17BC3BE2FDE4}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{79236673-FB96-4C1E-8958-EE410FB5AAE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E780BE48-935F-4969-A352-9BC2B3E0AB37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771585D1-0A5E-4B47-B30A-34E4F119E1D7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2441,18 +2441,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45CC6562-D03E-4BF4-BECD-FAD063A43820}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F55D2803-4305-48D6-BCE6-2335DC4CACC0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8D8CC34D-F108-4F81-B17B-1D3865CD6B55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{21A4652A-5C64-4E29-B135-23560E27A528}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{077FD4B7-C55B-43B1-9216-3A9AB508AC14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2ED3BD9-DBFB-4A0D-9C70-F543174F4E27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B09E96F8-B416-49E4-B939-104B1942B258}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{21246A57-C0E1-44A7-A65B-6C26EAF94BB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{343312DB-C3D1-4FCA-9629-A78E96C15B64}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D1181CE3-82E3-4B2C-B968-D16B8334FA13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{58B2AE85-8145-455C-9BAC-855A5481C5A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C91B936D-79FB-442D-8F36-AA73F64899F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA47FC2C-8915-4910-8CFE-7C61224E77F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6B0F7C03-D04F-4D96-A3B2-117343ADB985}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B7C537E7-2F78-46BE-8EBE-1BE78048FF79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC767E13-0EB9-4ED8-8475-728CC8457A9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ADCD5A6E-68D0-4B24-A8ED-945A0E7FAD12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2298CAF7-A360-4D2A-A634-45FF5DA4E1F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{532C7732-78CF-48C6-B58E-8AB425F45CCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{490A8C62-2321-46F3-B40A-BD6C5A2542EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{65ADCA77-5ECE-4C68-9D3A-804EE447CC2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{32F9B3AE-66DE-4E46-BF94-69344E63FA9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B0C42AF0-3D92-407D-83D7-88332AA1F1DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE9FA5BA-BBDF-4C2A-AE1E-F322EB15294E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7175036-449C-4660-BD71-60762CAC8722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E3931E-6108-44B2-859C-1445C70701E9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3652,18 +3652,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A627067-150D-41EE-854F-F6A3C35A1F3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D3B64B4-1A9D-4CD3-985B-B98AAF24C22A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{286FCA19-2A74-4E21-BBAE-25CDDA57D03C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2EFCD35E-8F4C-4336-A963-B33F2C3E7A42}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA93D5C1-D71B-4052-8B7E-9A285B76FB74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B93F7CA6-AB28-4B04-93AA-D4D6E2B85686}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9F0C93F8-5243-4740-AF2F-DF65169DDEC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0CCBDB6D-FB41-4129-917D-DA5D50CA995D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7F260B88-0173-4147-81AF-79F4AC55F777}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F1CBD295-C37A-4E71-AE0E-0A8130F378FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{64F17987-3009-4959-BF5C-F891C3863915}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{43722126-A184-4F2C-A037-46F7357FAB5F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A7495D8-D345-4130-B568-6E3308FB832F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F4E1E02-8CC0-4D9C-85BA-0CB62B2D155E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F98F71AE-202A-469A-8B08-D26A0D1A0707}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DA808C36-FF72-4960-8409-36558FF64A5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6929E4F9-4D80-48B4-9F62-CCD0F6502B15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D6599358-F66A-487A-8E98-CAFE883A47E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10BE03A8-BD55-4BE7-85FD-D8E85F9B7560}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CFC17AB1-E4B6-4C50-A225-4CB9C073F0F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA428898-23B9-4653-986C-94D873B3939B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BD317D99-F22C-4CBB-B718-775DB38D28FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59E04BDE-6B31-4170-90F5-FFDCF19F79B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC50FC27-3A95-4085-AD37-C131C99FD701}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3676,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0307D8-958D-4D89-A520-7776EB8DDC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C03AC7-CF92-4DEA-BDE8-787A9B712BF2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4859,18 +4859,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E4C4323-68BC-4967-A9FA-2BC1F61DE10F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9B185718-6B41-4418-8DD1-DA33B989F6EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F739788-4DC1-4932-842C-9C6A31B53AC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9C6C4609-EE94-4472-BE80-9E045ED14910}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F43E2E6-7B01-449C-AF4E-DE203A039490}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CCCACCAB-0E71-444A-A2EF-3DCEA37F7DB5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26ABD253-A8D2-46B3-AAF9-92D182A23368}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3E4E06D9-18E4-47B8-B1C8-D41F581BAC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2096B846-2D6E-4093-BC1E-DAB68E7683F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8DD929A6-BC73-4B6C-B92D-2A0D429E2DB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8575086-43B9-4ED5-8857-B88FD3307F1D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D1D06175-8FDF-453E-AA61-B8AEF95A3BCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AAE67074-BBE0-4DA1-B82D-5A3A3BF7D73C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF5F1805-3854-4799-95EC-8819176533E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4DE24D0C-C933-4D97-A3EB-580D705DA78A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1EA2F572-19C8-428D-9890-B02223784071}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CDB536DF-73BC-45A3-85AE-13EC9E08F997}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{71F1EC8E-D1E3-4B6E-837C-E81F9C2DAFFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{01E61862-CB9A-4775-9657-B882701E4E85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DDC2A695-48F8-4D20-90C2-8CD1E17EB959}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6AA9C10E-F2E1-432D-8DE2-DB38DC818C70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D37157C-CEF0-479D-9D61-0B0CC5F5A08A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80CC1645-D50A-4A35-9521-D5D60D558F13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A1488ED-5A58-4DA1-B731-59ABE938037D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4883,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586911E3-BAFC-451E-8666-B3892A414022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60AFD44-1578-4B34-8487-FC25AFC382FD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6044,18 +6044,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{11BDCEF7-EFC1-4CD6-B1D0-C0E5E9FD06A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BBF7860C-716C-4EF3-984F-091544E65C00}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEF8217E-DA7F-4806-8556-4034F62C4DCE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F1E1BD94-360B-4E0E-8EA1-53A2B46A9F36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A91CCF6B-96B2-4EF7-A4DC-38ED3C344388}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{869852C1-1AAC-40CE-9730-F79772F5229C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B2452A26-DB47-42EA-8F60-2EC100A72C37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD737BC1-909F-4F8F-9D44-948FAAF7E68B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{63E5E6F3-659C-476F-B45D-93CFBEA9BFAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{53FEBA37-17B9-4C5E-ADBA-8EC4D23B6DE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{343C09A6-2268-41E1-825E-C7995BF1DB31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9302A7C6-F574-4B97-984B-441A456F71C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{82399EBE-0757-4A91-BD82-C53A3C548E8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{74AEBAC9-BD04-4A5E-B5EE-4AE341506BA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{01E1B66C-3085-4208-A58E-2D8DD19DD030}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62E1C091-DF08-4706-8208-BA2A9C73CAF0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD09F5A5-E724-4908-B9CD-9919E08507A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B7BE1300-8A7E-49EB-9048-088FF65F9D27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{18FFE461-006E-49B3-A58B-0B8B416F24C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E889F096-3179-4FE7-AD9E-09ECE6B7DB5A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6840470-F4EA-4141-846F-FB3B1D76C1DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0D817D9-1DBD-4851-8906-505BE041626A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6762A915-8B80-48CE-9139-362008DE5696}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB6C0B9C-93E2-4B14-A6A2-960CB7A7E9D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6068,7 +6068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A2CE1E-8742-4BEB-ABB9-9F726E7F4AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE40C04B-95B3-402F-8AAB-6EFDFEA9553B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7279,18 +7279,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{20D01305-F1D0-4586-B4DF-2315BA6355D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{633E273B-8621-4EB0-9848-983D7CA975BB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9E913173-2CC4-4514-8191-CA439CAEB6B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ECAF273C-883E-4653-B0B2-A894DF3BB035}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA133ED1-4E79-4E9E-888E-8CD79B7C626A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{519398D8-053D-493C-A749-72621F7A82A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E968F37-1E6C-45C1-BF7C-23D81049A8AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DC690BC4-1DE6-4EDE-B201-D444330B9918}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DDF338A2-480B-446A-96E5-011F714E8A1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96C3822A-892E-4F30-8BE9-EA5AD01900E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4FD21192-E4E6-456E-97CE-4294AE6719C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B2DBED04-E1BC-413F-92BD-B948EF725B55}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{31AF22D8-993B-4F7A-8511-B03DBF8759D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C6528892-0A09-416A-989A-128D31BCA83F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20DB032F-803F-428A-AE25-EDA4095DACA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9DC2D042-AAD2-42A2-8996-26559C7ACD34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{689AE49E-B99E-41A5-BCCF-E1E42CB6C1D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BFF89575-A8DA-41F1-9CF2-66DFEEA9C162}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC6469A6-A0D7-47DB-AA01-4FDF0EC31199}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{94EF92DD-5DC4-41A4-B463-1A7EA0452406}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A1C9000C-05F2-4CAF-9013-399EAED644C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5B93D4BB-ADF5-49DD-ABE3-E8C5B72D3AAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F705F6A-9B01-45BD-9170-20EDB8E52A1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B62E96DB-4B33-4862-B036-FD4A85D3F088}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7303,7 +7303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA355CB-89B0-4F49-B255-EFBD7139740F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A5AEC9-6EAB-46BB-BC93-A1CBB24350F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8516,18 +8516,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{42657C18-67A8-448F-A165-96D6547869BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B50720A-5DA6-411F-AC41-1C370766C6A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1016F15D-2C70-49CC-BDDA-0B2C6D8C3EF0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F0D6701-E333-4CDC-A889-DA21B08BDBC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FDD95334-5A72-40B0-8875-81DFB3610462}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FA484E5F-985E-488F-9C6C-FEF085BC45AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EC5785C2-579B-4319-B1A3-1AAB03E8AF87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D30EDAFA-7FFC-496E-9399-9C509468BE57}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D2B665A1-122A-4881-AC4F-A9478038D560}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A55684E-F0BE-4C61-807A-B8694DBEC240}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5919E88B-A234-427A-954A-5B845D0E6370}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0E694255-68F4-41FE-AAB4-9460AC6E3310}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8068A6C3-D562-4B33-931E-E346772FC641}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5C31E6A7-3CD6-4527-B2A7-6495CDDAA36F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0AAE118-264C-4AD7-9584-CA4D3EFA990E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{572CB483-F7CE-4093-938B-AB10874447FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A153C5F2-4613-49B0-8B29-DB1669FBB5C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{632143E5-0504-4E1D-9D49-AA264B71846A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{49436B68-690C-494B-AD23-A6725F0787CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B68F55AD-33D3-4FE7-9986-36A6DD2082FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{140801A0-311E-45C3-9872-9C01EB610372}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CBFCD201-160A-4587-B19B-447EB55BD91C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{14A66892-CC31-483A-B9AD-CC9A067AE0BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1136534B-1815-4A72-9936-FEA1499B0AD4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8540,7 +8540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D61002-94B3-4C7B-898E-D1A575842A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE3E4E9-0031-41FA-883B-CAB42956C6B7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9751,18 +9751,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{253710AA-9C53-4051-AE0E-6C504061AE3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9ACE4BF6-3B2F-4413-97A7-375B91C76C81}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{391D6C25-7A51-4B3F-955C-0070598FA829}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04EFAEF2-3055-4541-8E77-F547F7951946}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBB7D312-29E1-43CF-9B71-EDCA270793E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2DD66197-0109-4FBA-984B-64FFA318C700}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52DD7223-3267-49E1-BF11-65C911F74C61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F48279C0-9DDE-4991-8F2E-2F809B13CB09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{428B2D48-6824-4C8E-97E7-05A972D46782}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E9404CF-0ED4-4EDD-90DF-A10B5F7038D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BC31FACB-6CAA-4C1D-B88D-DF8D035EDD0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F21B46B6-7F10-479A-97D8-A5EA9216F974}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6983D300-22BF-455B-9112-027B3E5C5CEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{628D5FDF-0E8D-4C62-B30A-E876DFD35E2F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7C2A912E-564B-48CA-9677-2244643B683C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A6B3DE97-45CA-451F-9E3E-04FE0DA19300}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA65435A-8795-48CF-A6A9-3D5BA9914965}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FDB87EC2-F133-4E80-B7AD-1A8013CF1F15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2682B233-E448-46A3-B469-344024FE2F9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6310ABBD-8FA5-472F-BE26-447209FB4CC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4DE7441B-FAC1-4A43-BC76-D09A3947B62A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09824919-AC2E-4ECF-9CD3-47E5E8CFC20A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D5491BBB-F7B1-4303-AE30-BCE72E6A3BA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9BFC9AA0-2320-4EAA-8B2E-61983A1A2BD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9775,7 +9775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96581D67-E40A-4696-BE9E-136E13163291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F22E02-F288-49CE-BA32-480AB155675F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10976,18 +10976,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FDFBBD92-2394-4A90-8E53-155DD3F56B7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C6608432-CB88-4A42-A32E-24735CA6826C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{827B140D-06A1-4945-977D-F0FC1607E5D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{85E6CEFD-3570-44AB-A0A5-9E83AF6FCAE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F6DF3136-2B22-497B-AF9D-23589F564A18}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{36E15D83-9C1F-4741-85E5-EB3025838F2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{421C3EB7-EC46-4035-8129-84C1BBF551AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1F3973F0-ADEB-4E85-B30B-16150B947EF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6979F903-0C8B-4E35-B119-81BD7DCE210F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3087D732-7484-4926-84D3-D6DE61CAAFD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8343AE47-FD27-4723-80C9-4AD251E55249}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6F5223CC-806F-45F3-99B8-7E3D22007134}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E33D07AC-642D-4898-AFFC-5AB70B234938}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{879C5B30-F4CC-46EA-A0F5-802E264C2D0A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8C41DCAF-DCC3-4855-9257-422352FB205A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C81FA647-B6D4-4C18-BCC3-83FAFFA5BD41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CAFE4EFC-47E0-4E0C-BEB0-70C4F7623750}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{72A0755B-2457-4697-935B-42BB19C6F4F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{70926FF7-34AF-401B-8EAF-CEA7EB29576E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BE73AE38-0C5F-4DF3-AC78-63C2C4902BAC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6962BD84-3EE4-494F-8785-3B870FB7962D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4167CEB5-1BF8-4DB9-A877-FEFA61BD04FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{25D6A3FF-8124-4284-9C9E-3F03C84E8EAF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A51A301-E28E-4700-9D0E-E59B09178036}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11000,7 +11000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6C6D95-7600-44E4-9C0B-4032A1A4C76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAC9C07-2642-44E6-9FB7-3C75987072CF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12201,18 +12201,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{399BAB58-42A3-44F3-A1EB-46A9452BB1F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E5D4603-6108-4C5E-812F-267E802EE1EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EC3D9CEB-CFA7-42E3-9C92-772B9C697CB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6604533A-5C40-4A52-8BFA-D63DBE894354}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD8CE6D1-4C70-49A1-A2A2-31CEFD12FA72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{573760AD-9A96-416D-9A88-E259B842C8FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EEA75775-5921-4687-841D-3EFA2109BD0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86B59F86-490E-4858-AF2A-E0910345253C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{877856E9-19CE-4F5A-95D8-3CF5E281741D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E84F8B30-5299-4812-B75C-339E5200EA4B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{644BDBC3-A3B1-40F2-A5FE-9DE876D7B7A7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8CA115F5-D6BD-43CB-835A-967CDF92E6C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A8A3CA9-B299-465A-89F8-C7C2DA3F10D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9000907A-E039-4083-82F3-098DAF5273BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F552889F-EA4E-49ED-8281-C66D03CA3ED1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{885E7D02-E8A7-4BF0-919D-D68EAA302ECE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9CE551BB-01DD-4FD6-8661-5EC320940C7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4EBBA904-0B4F-4C3C-825D-FB9C8E06CE79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB39377D-9B0A-43DE-8A16-B2CBAB8F7CA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D28FA812-3919-4B6C-89C4-AA37BF8BC565}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7BC9A73-EAE6-439E-B95B-55518004C319}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CAC00D2F-CCD6-4E67-B374-F6C3C3276E0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9C58E1E0-88BD-47A6-8BCD-853DC9D9F4F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CA21B112-0F54-40ED-B6FE-F2A69E2E5466}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12225,7 +12225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C908DD3-A3DE-4252-B1F2-3E458390060B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF08FF0B-88E9-4C9E-82BC-E7BEE1F8EE79}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13426,18 +13426,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D768C403-9E84-4EA6-853B-C82F7FF370CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{53721CD6-5AD4-4037-A4E0-15AEA7E44290}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EA072C73-16D1-443C-B116-31E25CDA61DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EFD51150-CFFC-44A1-93EF-A4925ACE1D0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{75022047-490B-48D8-9756-40C31714571A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A6251BB-F885-4AA7-AC3B-CE08D60B526B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7AFC1E9F-AB62-474D-A2C3-C51D353B527B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{57606924-36AF-4DFA-9BF7-D56986B94F9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{577133C3-09B8-483D-A1DB-57C832838A75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{56A0E29D-0AB3-4181-95A1-51CD544579FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4E19E6ED-4352-41CD-8756-1C6B093E88D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{212F13E9-1531-4D7F-82D8-6552AAFA6907}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E37387F-C66B-4810-9409-F43DDB076199}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{851B36AD-6A84-44B6-9583-6A38C872A05C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE7B0B70-0B7A-4F6A-90CF-9153C67DDA20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6DDEDA92-98E8-4D6B-AE22-1C30BF4BFFD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BBA28CFE-1E2D-4BF7-ADB1-6D6EA7FD9969}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C634FF9F-C269-42E4-87F4-B45B5DCB56E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7B2A846D-0864-4E19-8015-6D14D05646E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1C88F806-1DA1-4544-998C-EFF9DCCB6FBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{31FF2750-E16D-47C3-88F0-73DDB6D4F97E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A832B418-04A3-42E5-BBA9-7C643D49D730}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{65150B2A-8B0B-4978-985A-6E24BD065FBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0DB858E2-8B6E-4323-9A0D-77CD494518A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13450,7 +13450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B929A112-3CDF-4F91-9867-BEEB306503C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEB4A3F-194A-4BA5-A656-BD044816F8B6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14643,18 +14643,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC13E92D-386C-4260-A804-A5BB51FAF398}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C4D6FE10-431D-4C2C-9978-1AE6D5400EA4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{94A680A6-5850-4179-8C25-C81112CE27FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8786A603-64A2-4D74-9BEE-44A9591523F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FC3A76F-0E52-471D-920C-12D3FB25ED27}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3843616-03BF-4E80-978A-87EB94EDB3EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8790DC05-974C-4CC4-BC5C-BB0D9F7DDFE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E53DBD8-FD0F-4BE2-A8A1-5871D6A64678}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FBEF65E1-DD26-4AD8-AA47-5B9141570CA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3EBCD88D-6C93-4EFD-B7FF-DCAB5123A006}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13684588-CA72-4A6C-8365-FD4C87CA8F63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{875801F8-1E45-43D5-81C8-4D58B8590D00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48772C66-011D-45F7-B7ED-9F51CC1F5CF4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5BE8DE7E-5946-4D2A-BB50-D5C14A893CA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5EC20D35-0543-4C66-8747-121EF336A99A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C01F7DA-EFC8-4259-818D-9077A924D825}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C97FAA82-24D3-4988-95B7-54C42ADF6136}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{264B9799-248E-47C0-A5D8-8C2B149475EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20A42D5D-46AB-43FE-BDFD-1ED13C50F218}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{07AEDBDC-7D24-41A6-8794-0CAA1BCC0C01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D46ED55B-480D-40D4-8F18-EDD95A77F861}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{58A04F33-FF01-4F0D-B121-FCAE27A3562C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C25F7259-FAEC-44ED-A0D5-57909AB5A71C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2A97FBC-8C54-4BD4-8FE9-B0A4374F824E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14667,7 +14667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7CF0F5-87D4-4232-88A9-DE01BD28DDF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D7677-5715-4D26-8518-9004C96F4B14}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15858,18 +15858,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBF35395-2980-4163-81E0-575D2F5F3796}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2AF30861-E997-4A9F-AAF5-D13A3BFB3996}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F6821A08-0AED-4CA5-BDCA-5B0D86C5333F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E588CE4-1A23-4164-87DD-ACF1789C871A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E7F7E957-724D-4075-AD54-F582E38CF333}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6EF3B90D-1009-4407-B05E-FAD094B3CDDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF828FE7-950A-4C8F-984E-5750096520B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F9FF6E2-E966-49A4-9069-787480CA0F5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE7DBF21-0939-45DA-B86E-1352E970C1B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D2BC6E88-204B-4BAE-BE5A-E8F7D111B78F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{86A3E3BE-B940-48F9-982E-AB058C71BAC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5B66F3E2-9DF6-4FDF-84D2-9ACDDA78744C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E523786-00E1-4A8E-B46B-835B636AA352}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{92B2234A-6E62-4BAF-A994-87A02F895188}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F4CA96B5-3541-4448-893B-61C324669AAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{930D700E-4D0F-4E4C-8BDA-371274640ECE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F8F09CEA-99BD-4223-AED3-7D2D75861458}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E9C6C94-8604-4A9C-BB13-3D1726782C5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{684099A6-4894-4165-836E-054CC4CBEF65}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{38DA1F3C-F14C-4405-AA10-D698F7274FD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{53014F44-1639-4822-97B0-C18358ECEC83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05B3B7BD-0851-4E58-A5F8-CC8A3AECA237}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3645A493-E534-4EAA-B5EE-9C78AD533373}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C88F1D61-B6E5-405B-AC83-DB4B9770108C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
